--- a/changes/r700.xlsx
+++ b/changes/r700.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D19B617-7B74-4091-9BAF-7C0857E5D79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B3D238-F53F-4675-A933-BEEF98451089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>magazine_capacity</t>
   </si>
   <si>
-    <t>bullet_deviation</t>
-  </si>
-  <si>
     <t>bullet_damage</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>remington_model_700_559mm_.308_barrel</t>
+  </si>
+  <si>
+    <t>barrel_deviation</t>
   </si>
 </sst>
 </file>
@@ -538,16 +538,16 @@
   <dimension ref="A1:P1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -565,7 +565,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,33 +588,33 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -652,12 +652,12 @@
         <v>2.8400000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -691,12 +691,12 @@
         <v>-20.016666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -730,12 +730,12 @@
         <v>-21.483333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -769,12 +769,12 @@
         <v>-21.383333333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -808,12 +808,12 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>-1</v>
@@ -847,12 +847,12 @@
         <v>-22.516666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>-1</v>
@@ -886,12 +886,12 @@
         <v>-22.416666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>-3</v>
@@ -925,7 +925,7 @@
         <v>-24.033333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -944,12 +944,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -973,12 +973,12 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -1002,12 +1002,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -1031,12 +1031,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -1060,12 +1060,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -1089,12 +1089,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -1118,12 +1118,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1147,12 +1147,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -1176,12 +1176,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1205,12 +1205,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -1234,12 +1234,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1282,12 +1282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="C24" s="3">
         <v>-0.5</v>
@@ -1311,12 +1311,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C25" s="3">
         <v>-2</v>
@@ -1342,7 +1342,7 @@
         <v>-3.4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1361,12 +1361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -1390,12 +1390,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -1419,12 +1419,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1469,12 +1469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3">
         <v>-2</v>
@@ -1500,12 +1500,12 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3">
         <v>-6</v>
@@ -1531,12 +1531,12 @@
         <v>-13.2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4">
         <v>-2</v>
@@ -1558,12 +1558,12 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="4">
         <v>-6</v>
@@ -1585,7 +1585,7 @@
         <v>-12.4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1604,12 +1604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C36" s="4">
         <v>34</v>
@@ -1637,12 +1637,12 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1686,7 +1686,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1702,7 +1702,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1718,7 +1718,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1734,7 +1734,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1750,7 +1750,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1766,7 +1766,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1782,7 +1782,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1798,7 +1798,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1814,7 +1814,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1830,971 +1830,971 @@
       <c r="M47" s="4"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/changes/r700.xlsx
+++ b/changes/r700.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B3D238-F53F-4675-A933-BEEF98451089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602B514-E383-4411-AFF5-A434FFD069B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>new</t>
   </si>
@@ -206,18 +206,12 @@
     <t>hogue_remington_model_700_stock_pad</t>
   </si>
   <si>
-    <t>Houge Rem700 Stock Pad</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Wyatt's Outdoor .308 5R</t>
   </si>
   <si>
     <t xml:space="preserve">	Wyatt's Outdoor .308 10R</t>
   </si>
   <si>
-    <t xml:space="preserve">(secret note.... I am not happy... as a person) </t>
-  </si>
-  <si>
     <t>magpul_pmag_ac_5r</t>
   </si>
   <si>
@@ -239,15 +233,6 @@
     <t>badger_ordnance_m4_trigger_guard</t>
   </si>
   <si>
-    <t>badger Ordnance M4 R700 Bottom Plate</t>
-  </si>
-  <si>
-    <t>wyatts_5r</t>
-  </si>
-  <si>
-    <t>wyatts_10r</t>
-  </si>
-  <si>
     <t>hogue_remington_model_700_overmolded_bdl_full_bed_block_stock</t>
   </si>
   <si>
@@ -264,6 +249,276 @@
   </si>
   <si>
     <t>barrel_deviation</t>
+  </si>
+  <si>
+    <t>accuracy_international_rem700_sa_at_aics_gen2_folding_chassis_frame</t>
+  </si>
+  <si>
+    <t>Accuracy International Rem700 SA AT AICS 2.0 Folding Chassis Frame</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_buttpad</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Buttpad</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_10mm_spacer</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 10mm Spacer</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_cheekrest</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Cheek Rest</t>
+  </si>
+  <si>
+    <t>accuracy_international_rem700_sa_at_aics_gen2_folding_chassis_standard_stock</t>
+  </si>
+  <si>
+    <t>ccuracy International AT AICS 2.0 Standard Stock</t>
+  </si>
+  <si>
+    <t>accuracy_international_rem700_sa_at_aics_gen2_folding_chassis_thumbhole_stock</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Thumbhole Stock</t>
+  </si>
+  <si>
+    <t>accuracy_international_rem700_sa_at_aics_gen2_folding_chassis_external_cover</t>
+  </si>
+  <si>
+    <t>Accuracy International Rem700 SA AT AICS 2.0 Folding Chassis External Cover</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_frame_mount</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Frame Mount</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_frame_keymod_assembly</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Keymod Frame Cover</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_frame_rail_assembly</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Picatinny Frame Cover</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_stock_hinge</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Stock Hinge</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_stock_hinge_body</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Stock Hinge Body</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_mag_release</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Mag Release</t>
+  </si>
+  <si>
+    <t>accuracy_international_rem700_sa_at_aics_gen2_folding_chassis_pistol_grip_assembly</t>
+  </si>
+  <si>
+    <t>Accuracy International Rem700 SA AT AICS 2.0 Folding Chassis Pistol Grip Assembly</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_standard_backstrap</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Standard Backstrap</t>
+  </si>
+  <si>
+    <t>accuracy_international_at_aics_gen2_thumbhole_backstrap</t>
+  </si>
+  <si>
+    <t>Accuracy International AT AICS 2.0 Thumbhole Backstrap</t>
+  </si>
+  <si>
+    <t>Hogue</t>
+  </si>
+  <si>
+    <t>Hogue Rem700 Stock Pad</t>
+  </si>
+  <si>
+    <t>AICS</t>
+  </si>
+  <si>
+    <t>AICS Thumbhole</t>
+  </si>
+  <si>
+    <t>magpul_hunter700_short_action</t>
+  </si>
+  <si>
+    <t>Magpul Hunter 700 Short Action</t>
+  </si>
+  <si>
+    <t>hunterstock_lop_0.5_1</t>
+  </si>
+  <si>
+    <t>Hunter 700 Stock 0.5 Spacer</t>
+  </si>
+  <si>
+    <t>hunterstock_lop_0.5_2</t>
+  </si>
+  <si>
+    <t>hunterstock_lop_0.5_3</t>
+  </si>
+  <si>
+    <t>hunterstock_lop_0.5_4</t>
+  </si>
+  <si>
+    <t>hunter_stock_buttpad</t>
+  </si>
+  <si>
+    <t>Hunter 700 Stock Buttpad</t>
+  </si>
+  <si>
+    <t>hunter_cheekrest_flat</t>
+  </si>
+  <si>
+    <t>Hunter 700 Stock Cheek Rest Flat</t>
+  </si>
+  <si>
+    <t>hunter_cheekrest_.25</t>
+  </si>
+  <si>
+    <t>Hunter 700 Stock Cheek Rest .25</t>
+  </si>
+  <si>
+    <t>hunter_cheekrest_.5</t>
+  </si>
+  <si>
+    <t>Hunter 700 Stock Cheek Rest .5</t>
+  </si>
+  <si>
+    <t>hunter_cheekrest_.75</t>
+  </si>
+  <si>
+    <t>Hunter 700 Stock Cheek Rest .75</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Badger Ordnance M4 R700 Bottom Plate</t>
+  </si>
+  <si>
+    <t>Hunter + Badger</t>
+  </si>
+  <si>
+    <t>mdt_lss_stock_adapter</t>
+  </si>
+  <si>
+    <t>MDT LSS Fixed</t>
+  </si>
+  <si>
+    <t>mdt_v5_skeleton_rifle_stock</t>
+  </si>
+  <si>
+    <t>MDT Skeleton V5</t>
+  </si>
+  <si>
+    <t>mdt_v5_skeleton_rifle_stock_short</t>
+  </si>
+  <si>
+    <t>MDT Skeleton V5 Short</t>
+  </si>
+  <si>
+    <t>mdt_buttpad</t>
+  </si>
+  <si>
+    <t>MDT V5</t>
+  </si>
+  <si>
+    <t>mdt_premier_avp_grip</t>
+  </si>
+  <si>
+    <t>MDT Premier AVP</t>
+  </si>
+  <si>
+    <t>mdt_lss_nv_hood</t>
+  </si>
+  <si>
+    <t>MDT LSS Night Vision</t>
+  </si>
+  <si>
+    <t>mdt_lss_xl_nv_hood_oversize</t>
+  </si>
+  <si>
+    <t>MDT LSS-XL Gen II Night Vision</t>
+  </si>
+  <si>
+    <t>mdt_lss_gen2_carbine_chassis</t>
+  </si>
+  <si>
+    <t>MDT LSS-XL Gen II Carbine</t>
+  </si>
+  <si>
+    <t>LSS</t>
+  </si>
+  <si>
+    <t>COMMON PARTS</t>
+  </si>
+  <si>
+    <t>7.62x51 Winchester M80 149gr FMJ</t>
+  </si>
+  <si>
+    <t>mdt_tac21_gen2_15inch_r700_mlok_handguard</t>
+  </si>
+  <si>
+    <t>MDT TAC21 Gen 2 15in MLOK Handguard</t>
+  </si>
+  <si>
+    <t>mdt_tac21_gen2_r700_buffer_tube_adapter</t>
+  </si>
+  <si>
+    <t>MDT TAC21 Gen 2 Buffer Tube Adaptor</t>
+  </si>
+  <si>
+    <t>mdt_tac21_gen2_r700_lower_receiver</t>
+  </si>
+  <si>
+    <t>MDT TAC21 Gen 2 Lower Receiver</t>
+  </si>
+  <si>
+    <t>mdt_tac21_gen2_r700_upper_receiver</t>
+  </si>
+  <si>
+    <t>MDT TAC21 Gen 2 Upper Receiver</t>
+  </si>
+  <si>
+    <t>mdt_tac21_gen2_r700_mag_release</t>
+  </si>
+  <si>
+    <t>MDT TAC21 Gen 2 Magazine Release</t>
+  </si>
+  <si>
+    <t>TAC21</t>
+  </si>
+  <si>
+    <t>wyatt_outdoor_rem700_.308_5r_mag</t>
+  </si>
+  <si>
+    <t>wyatt_outdoor_rem700_.308_10r_mag</t>
+  </si>
+  <si>
+    <t>Remington700</t>
+  </si>
+  <si>
+    <t>Remington Model 700</t>
   </si>
 </sst>
 </file>
@@ -535,16 +790,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1008"/>
+  <dimension ref="A1:P1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -588,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
@@ -644,12 +899,16 @@
         <v>2000</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N37" si="0">C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>-20.116666666666667</v>
+        <f>C3-D3*20-E3*0.8-F3*0.6-H3*10+I3*10+J3/200</f>
+        <v>-21.2</v>
+      </c>
+      <c r="O3">
+        <f>C3-D3*20-H3*10+I3*10+J3/200</f>
+        <v>-17</v>
       </c>
       <c r="P3">
-        <f>D7+D12+D13+D14+D15+D16+D17+D19+D21+D27+D31+D36+D37</f>
-        <v>2.8400000000000003</v>
+        <f>D7+D12+D13+D14+D15+D16+D17+D19+D21+D37+D30+D35+D36</f>
+        <v>2.79</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -687,8 +946,12 @@
         <v>3000</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="0"/>
-        <v>-20.016666666666669</v>
+        <f t="shared" ref="N4:N67" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*10+I4*10+J4/200</f>
+        <v>-21.2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O33" si="1">C4-D4*20-H4*10+I4*10+J4/200</f>
+        <v>-17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -727,7 +990,11 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>-21.483333333333334</v>
+        <v>-21.900000000000002</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -766,12 +1033,16 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>-21.383333333333336</v>
+        <v>-21.900000000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
@@ -805,6 +1076,10 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
         <v>-22</v>
       </c>
     </row>
@@ -844,7 +1119,11 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>-22.516666666666666</v>
+        <v>-22.099999999999998</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -883,7 +1162,11 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>-22.416666666666664</v>
+        <v>-22.099999999999994</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>-23.499999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -894,7 +1177,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="3">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D10" s="3">
         <v>1.3</v>
@@ -922,7 +1205,11 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>-24.033333333333331</v>
+        <v>-22.2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>-25</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -943,6 +1230,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -972,6 +1263,10 @@
         <f t="shared" si="0"/>
         <v>-8</v>
       </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1001,6 +1296,10 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1030,6 +1329,10 @@
         <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1059,6 +1362,10 @@
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1088,8 +1395,12 @@
         <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1117,8 +1428,12 @@
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1146,8 +1461,12 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1175,8 +1494,12 @@
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1204,8 +1527,12 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -1233,8 +1560,12 @@
         <f t="shared" si="0"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
@@ -1262,87 +1593,150 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.2</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4">
+        <v>0.15</v>
+      </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <v>50</v>
+      </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-15.25</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>-15.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="3">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2150</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <v>42000</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>-49.449999999999989</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C7+C12,C13,C14,C15,C16,C17,C19,C21,C23,C24)</f>
         <v>40</v>
       </c>
-      <c r="C24" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3">
-        <v>750</v>
+      <c r="D25">
+        <f t="shared" ref="D25:M25" si="2">SUM(D7+D12,D13,D14,D15,D16,D17,D19,D21,D23,D24)</f>
+        <v>1.9400000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>42000</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-99.5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>19.699999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1360,19 +1754,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D27" s="3">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1383,28 +1781,34 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D28" s="3">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>-1</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1412,80 +1816,92 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.1</v>
-      </c>
+        <v>-3.4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="4">
-        <v>5</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="3">
-        <v>600</v>
-      </c>
+      <c r="M29" s="3"/>
       <c r="N29" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>300</v>
+      </c>
       <c r="N30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-6.4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="3">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D31" s="3">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1493,60 +1909,68 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="0"/>
-        <v>-6.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>-13.2</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>-13.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3">
-        <v>-6</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.36</v>
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.18</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="3">
-        <v>10</v>
+      <c r="G32" s="4">
+        <v>5</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="3">
-        <v>1000</v>
-      </c>
+      <c r="M32" s="4"/>
       <c r="N32" s="1">
         <f t="shared" si="0"/>
-        <v>-13.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-5.6</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="4">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="D33" s="4">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>10</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1555,22 +1979,18 @@
       <c r="M33" s="4"/>
       <c r="N33" s="1">
         <f t="shared" si="0"/>
-        <v>-5.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="4">
-        <v>-6</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.32</v>
-      </c>
+        <v>-12.4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1582,80 +2002,98 @@
       <c r="M34" s="4"/>
       <c r="N34" s="1">
         <f t="shared" si="0"/>
-        <v>-12.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O4:O51" si="3">C34-D34*20-H34*10+I34*10+J34/200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E35" s="4">
+        <v>-2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-5</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
       <c r="N35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="4">
-        <v>34</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="E36" s="4">
-        <v>-2</v>
-      </c>
-      <c r="F36" s="4">
-        <v>-5</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="4">
+      <c r="M36" s="3">
         <v>0</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="0"/>
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1667,222 +2105,1717 @@
       </c>
       <c r="N37" s="1">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+        <v>-1.6</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>0.8</v>
+      </c>
+      <c r="E39">
+        <v>-4</v>
+      </c>
+      <c r="F39">
+        <v>-5</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="0"/>
+        <v>28.2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.6</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <v>0.04</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0.04</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45">
+        <v>0.5</v>
+      </c>
+      <c r="D45">
+        <v>0.04</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0.05</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>-1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <v>0.02</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>0.03</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0.04</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.05</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E52">
+        <v>-2</v>
+      </c>
+      <c r="F52">
+        <v>-4</v>
+      </c>
+      <c r="M52">
+        <v>3000</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52:O88" si="4">C52-D52*20-H52*10+I52*10+J52/200</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53">
+        <v>-1</v>
+      </c>
+      <c r="D53">
+        <v>0.04</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="4"/>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>0.32</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>-0.05</v>
+      </c>
+      <c r="M54">
+        <v>1200</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="4"/>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>0.3</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>-0.05</v>
+      </c>
+      <c r="M55">
+        <v>1200</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.05</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
+      </c>
+      <c r="F56">
+        <v>-1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>0.08</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>700</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.04</v>
+      </c>
+      <c r="M58">
+        <v>500</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="4"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0.06</v>
+      </c>
+      <c r="M59">
+        <v>750</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="4"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N60" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>0.24</v>
+      </c>
+      <c r="E61">
+        <v>-5</v>
+      </c>
+      <c r="F61">
+        <v>-5</v>
+      </c>
+      <c r="M61">
+        <v>1000</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.06</v>
+      </c>
+      <c r="M62">
+        <v>600</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="4"/>
+        <v>-0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0.18</v>
+      </c>
+      <c r="E63">
+        <v>-2</v>
+      </c>
+      <c r="F63">
+        <v>-3</v>
+      </c>
+      <c r="M63">
+        <v>2000</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="4"/>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.21</v>
+      </c>
+      <c r="E64">
+        <v>-4</v>
+      </c>
+      <c r="F64">
+        <v>-5</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="4"/>
+        <v>-1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0.02</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f>C66-D66*20-H66*10+I66*10+J66/200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="4">
+        <v>26</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="E67" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>-3</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4">
+        <v>6000</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="0"/>
+        <v>21.3</v>
+      </c>
+      <c r="O67">
+        <f>C67-D67*20-H67*10+I67*10+J67/200</f>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" ref="N68:N86" si="5">C68-D68*20-E68*0.8-F68*0.6-H68*10+I68*10+J68/200</f>
+        <v>-1.2</v>
+      </c>
+      <c r="O68">
+        <f>C68-D68*20-H68*10+I68*10+J68/200</f>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4">
+        <v>200</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="O69">
+        <f>C69-D69*20-H69*10+I69*10+J69/200</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="O70">
+        <f>C70-D70*20-H70*10+I70*10+J70/200</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="4">
+        <v>19</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="E71" s="4">
+        <v>-2</v>
+      </c>
+      <c r="F71" s="4">
+        <v>-2</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="5"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="O71">
+        <f>C71-D71*20-H71*10+I71*10+J71/200</f>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="4">
+        <v>20</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="E72" s="4">
+        <v>-3</v>
+      </c>
+      <c r="F72" s="4">
+        <v>-3</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4">
+        <v>2000</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="5"/>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="O72">
+        <f>C72-D72*20-H72*10+I72*10+J72/200</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="O73">
+        <f>C73-D73*20-H73*10+I73*10+J73/200</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.4</v>
+      </c>
+      <c r="O74">
+        <f>C74-D74*20-H74*10+I74*10+J74/200</f>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4">
+        <v>200</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.4</v>
+      </c>
+      <c r="O75">
+        <f>C75-D75*20-H75*10+I75*10+J75/200</f>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>-2</v>
+      </c>
+      <c r="D76">
+        <v>0.03</v>
+      </c>
+      <c r="M76">
+        <v>700</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.6</v>
+      </c>
+      <c r="O76">
+        <f>C76-D76*20-H76*10+I76*10+J76/200</f>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0.03</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O77">
+        <f>C77-D77*20-H77*10+I77*10+J77/200</f>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0.03</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O78">
+        <f>C78-D78*20-H78*10+I78*10+J78/200</f>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0.01</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O79">
+        <f>C79-D79*20-H79*10+I79*10+J79/200</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>0.18</v>
+      </c>
+      <c r="E80">
+        <v>-2</v>
+      </c>
+      <c r="F80">
+        <v>-2</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="O80">
+        <f>C80-D80*20-H80*10+I80*10+J80/200</f>
+        <v>1.4000000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0.04</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="O81">
+        <f>C81-D81*20-H81*10+I81*10+J81/200</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M82">
+        <v>500</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="O82">
+        <f>C82-D82*20-H82*10+I82*10+J82/200</f>
+        <v>1.5999999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N83" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="4">
+        <f>C25+C30+C35+C36+C37</f>
+        <v>72</v>
+      </c>
+      <c r="D84" s="4">
+        <f>D25+D30+D35+D36+D37</f>
+        <v>2.99</v>
+      </c>
+      <c r="E84" s="4">
+        <f>E25+E30+E35+E36+E37</f>
+        <v>78</v>
+      </c>
+      <c r="F84" s="4">
+        <f>F25+F30+F35+F36+F37</f>
+        <v>87</v>
+      </c>
+      <c r="G84" s="4">
+        <f>G25+G30+G35+G36+G37</f>
+        <v>5</v>
+      </c>
+      <c r="H84" s="4">
+        <f>H25+H30+H35+H36+H37</f>
+        <v>0.25</v>
+      </c>
+      <c r="I84" s="4">
+        <f>I25+I30+I35+I36+I37</f>
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <f>J25+J30+J35+J36+J37</f>
+        <v>2200</v>
+      </c>
+      <c r="K84" s="4">
+        <f>K25+K30+K35+K36+K37</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <f>L25+L30+L35+L36+L37</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="4">
+        <f>M25+M30+M35+M36+M37</f>
+        <v>42300</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" si="5"/>
+        <v>-83.9</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="4"/>
+        <v>30.699999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85">
+        <f>C39+C40+C46+C47+C32+C25</f>
+        <v>78.5</v>
+      </c>
+      <c r="D85">
+        <f>D39+D40+D46+D47+D32+D25</f>
+        <v>3.0700000000000003</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85:M85" si="6">E39+E40+E46+E47+E32+E25</f>
+        <v>75</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="6"/>
+        <v>43000</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="5"/>
+        <v>-76</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="4"/>
+        <v>35.599999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86">
+        <f>C39+C41+C46+C47+C25</f>
+        <v>83.5</v>
+      </c>
+      <c r="D86">
+        <f>D39+D41+D46+D47+D25</f>
+        <v>3.0200000000000005</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86:M86" si="7">E39+E41+E46+E47+E25</f>
+        <v>75</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>2200</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="7"/>
+        <v>43600</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" si="5"/>
+        <v>-70</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="4"/>
+        <v>41.599999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87">
+        <f>C52+C53+C56+C57+C55+C32+C25</f>
+        <v>88</v>
+      </c>
+      <c r="D87">
+        <f>D52+D53+D56+D57+D55+D32+D25</f>
+        <v>3.14</v>
+      </c>
+      <c r="E87">
+        <f>E52+E53+E56+E57+E55+E32+E25</f>
+        <v>78</v>
+      </c>
+      <c r="F87">
+        <f>F52+F53+F56+F57+F55+F32+F25</f>
+        <v>88</v>
+      </c>
+      <c r="G87">
+        <f>G52+G53+G56+G57+G55+G32+G25</f>
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <f>H52+H53+H56+H57+H55+H32+H25</f>
+        <v>0.2</v>
+      </c>
+      <c r="I87">
+        <f>I52+I53+I56+I57+I55+I32+I25</f>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f>J52+J53+J56+J57+J55+J32+J25</f>
+        <v>2200</v>
+      </c>
+      <c r="K87">
+        <f>K52+K53+K56+K57+K55+K32+K25</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f>L52+L53+L56+L57+L55+L32+L25</f>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f>M52+M53+M56+M57+M55+M32+M25</f>
+        <v>47000</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" ref="N52:N88" si="8">C87-D87*20-E87*0.8-F87*0.6-H87*10+I87*10+J87/200</f>
+        <v>-71</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="4"/>
+        <v>44.199999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88">
+        <f>C57+C53+C55+C56+C61+C62+C63+C64+C65+C32+C25</f>
+        <v>85</v>
+      </c>
+      <c r="D88">
+        <f>D57+D53+D55+D56+D61+D62+D63+D64+D65+D32+D25</f>
+        <v>3.3</v>
+      </c>
+      <c r="E88">
+        <f>E57+E53+E55+E56+E61+E62+E63+E64+E65+E32+E25</f>
+        <v>69</v>
+      </c>
+      <c r="F88">
+        <f>F57+F53+F55+F56+F61+F62+F63+F64+F65+F32+F25</f>
+        <v>79</v>
+      </c>
+      <c r="G88">
+        <f>G57+G53+G55+G56+G61+G62+G63+G64+G65+G32+G25</f>
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <f>H57+H53+H55+H56+H61+H62+H63+H64+H65+H32+H25</f>
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <f>I57+I53+I55+I56+I61+I62+I63+I64+I65+I32+I25</f>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <f>J57+J53+J55+J56+J61+J62+J63+J64+J65+J32+J25</f>
+        <v>2200</v>
+      </c>
+      <c r="K88">
+        <f>K57+K53+K55+K56+K61+K62+K63+K64+K65+K32+K25</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f>L57+L53+L55+L56+L61+L62+L63+L64+L65+L32+L25</f>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f>M57+M53+M55+M56+M61+M62+M63+M64+M65+M32+M25</f>
+        <v>48600</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="8"/>
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89">
+        <f>SUM(C67,C68,C69,C70,C71,C73,C74,C77,C78,C79,C81,C80+C32,C25)</f>
+        <v>92.5</v>
+      </c>
+      <c r="D89">
+        <f>SUM(D67,D68,D69,D70,D71,D73,D74,D77,D78,D79,D81,D80+D32,D25)</f>
+        <v>3.3900000000000006</v>
+      </c>
+      <c r="E89">
+        <f>SUM(E67,E68,E69,E70,E71,E73,E74,E77,E78,E79,E81,E80+E32,E25)</f>
+        <v>73</v>
+      </c>
+      <c r="F89">
+        <f>SUM(F67,F68,F69,F70,F71,F73,F74,F77,F78,F79,F81,F80+F32,F25)</f>
+        <v>85</v>
+      </c>
+      <c r="G89">
+        <f>SUM(G67,G68,G69,G70,G71,G73,G74,G77,G78,G79,G81,G80+G32,G25)</f>
+        <v>5</v>
+      </c>
+      <c r="H89">
+        <f>SUM(H67,H68,H69,H70,H71,H73,H74,H77,H78,H79,H81,H80+H32,H25)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I89">
+        <f>SUM(I67,I68,I69,I70,I71,I73,I74,I77,I78,I79,I81,I80+I32,I25)</f>
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <f>SUM(J67,J68,J69,J70,J71,J73,J74,J77,J78,J79,J81,J80+J32,J25)</f>
+        <v>2200</v>
+      </c>
+      <c r="K89">
+        <f>SUM(K67,K68,K69,K70,K71,K73,K74,K77,K78,K79,K81,K80+K32,K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f>SUM(L67,L68,L69,L70,L71,L73,L74,L77,L78,L79,L81,L80+L32,L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f>SUM(M67,M68,M69,M70,M71,M73,M74,M77,M78,M79,M81,M80+M32,M25)</f>
+        <v>48200</v>
+      </c>
+      <c r="N89" s="1">
+        <f>C89-D89*20-E89*0.8-F89*0.6-H89*10+I89*10+J89/200</f>
+        <v>-65.700000000000017</v>
+      </c>
+      <c r="O89">
+        <f>C89-D89*20-H89*10+I89*10+J89/200</f>
+        <v>43.699999999999989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90">
+        <f>SUM(C67,C68,C69,C70,C72,C73,C74,C77,C78,C79,C82,C80+C32+C25)</f>
+        <v>94.5</v>
+      </c>
+      <c r="D90">
+        <f>SUM(D67,D68,D69,D70,D72,D73,D74,D77,D78,D79,D82,D80+D32+D25)</f>
+        <v>3.4600000000000009</v>
+      </c>
+      <c r="E90">
+        <f>SUM(E67,E68,E69,E70,E72,E73,E74,E77,E78,E79,E82,E80+E32+E25)</f>
+        <v>72</v>
+      </c>
+      <c r="F90">
+        <f>SUM(F67,F68,F69,F70,F72,F73,F74,F77,F78,F79,F82,F80+F32+F25)</f>
+        <v>84</v>
+      </c>
+      <c r="G90">
+        <f>SUM(G67,G68,G69,G70,G72,G73,G74,G77,G78,G79,G82,G80+G32+G25)</f>
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <f>SUM(H67,H68,H69,H70,H72,H73,H74,H77,H78,H79,H82,H80+H32+H25)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <f>SUM(I67,I68,I69,I70,I72,I73,I74,I77,I78,I79,I82,I80+I32+I25)</f>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <f>SUM(J67,J68,J69,J70,J72,J73,J74,J77,J78,J79,J82,J80+J32+J25)</f>
+        <v>2200</v>
+      </c>
+      <c r="K90">
+        <f>SUM(K67,K68,K69,K70,K72,K73,K74,K77,K78,K79,K82,K80+K32+K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f>SUM(L67,L68,L69,L70,L72,L73,L74,L77,L78,L79,L82,L80+L32+L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f>SUM(M67,M68,M69,M70,M72,M73,M74,M77,M78,M79,M82,M80+M32+M25)</f>
+        <v>50700</v>
+      </c>
+      <c r="N90" s="1">
+        <f>C90-D90*20-E90*0.8-F90*0.6-H90*10+I90*10+J90/200</f>
+        <v>-63.700000000000017</v>
+      </c>
+      <c r="O90">
+        <f>C90-D90*20-H90*10+I90*10+J90/200</f>
+        <v>44.299999999999983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2795,6 +4728,27 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/changes/r700.xlsx
+++ b/changes/r700.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602B514-E383-4411-AFF5-A434FFD069B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA7A1C1-7683-462F-95FE-0535886CDC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,7 +793,7 @@
   <dimension ref="A1:P1029"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O4:O51" si="3">C34-D34*20-H34*10+I34*10+J34/200</f>
+        <f t="shared" ref="O34:O51" si="3">C34-D34*20-H34*10+I34*10+J34/200</f>
         <v>0</v>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E52">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F52">
         <v>-4</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="N52" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="O52">
         <f t="shared" ref="O52:O88" si="4">C52-D52*20-H52*10+I52*10+J52/200</f>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <f>C66-D66*20-H66*10+I66*10+J66/200</f>
+        <f t="shared" ref="O66:O82" si="5">C66-D66*20-H66*10+I66*10+J66/200</f>
         <v>0</v>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
         <v>72</v>
       </c>
       <c r="C67" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="4">
         <v>0.47</v>
@@ -2939,11 +2939,11 @@
       </c>
       <c r="N67" s="1">
         <f t="shared" si="0"/>
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="O67">
-        <f>C67-D67*20-H67*10+I67*10+J67/200</f>
-        <v>17.100000000000001</v>
+        <f t="shared" si="5"/>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,11 +2971,11 @@
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ref="N68:N86" si="5">C68-D68*20-E68*0.8-F68*0.6-H68*10+I68*10+J68/200</f>
+        <f t="shared" ref="N68:N86" si="6">C68-D68*20-E68*0.8-F68*0.6-H68*10+I68*10+J68/200</f>
         <v>-1.2</v>
       </c>
       <c r="O68">
-        <f>C68-D68*20-H68*10+I68*10+J68/200</f>
+        <f t="shared" si="5"/>
         <v>-1.2</v>
       </c>
     </row>
@@ -3004,11 +3004,11 @@
         <v>200</v>
       </c>
       <c r="N69" s="1">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="5"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="O69">
-        <f>C69-D69*20-H69*10+I69*10+J69/200</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
@@ -3037,11 +3037,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="O70">
-        <f>C70-D70*20-H70*10+I70*10+J70/200</f>
         <v>1.2</v>
       </c>
     </row>
@@ -3059,10 +3059,10 @@
         <v>0.27</v>
       </c>
       <c r="E71" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F71" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3074,11 +3074,11 @@
         <v>0</v>
       </c>
       <c r="N71" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="5"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O71">
-        <f>C71-D71*20-H71*10+I71*10+J71/200</f>
         <v>13.6</v>
       </c>
     </row>
@@ -3111,11 +3111,11 @@
         <v>2000</v>
       </c>
       <c r="N72" s="1">
+        <f t="shared" si="6"/>
+        <v>18.000000000000004</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="5"/>
-        <v>18.000000000000004</v>
-      </c>
-      <c r="O72">
-        <f>C72-D72*20-H72*10+I72*10+J72/200</f>
         <v>13.8</v>
       </c>
     </row>
@@ -3144,11 +3144,11 @@
         <v>0</v>
       </c>
       <c r="N73" s="1">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="O73">
-        <f>C73-D73*20-H73*10+I73*10+J73/200</f>
         <v>-2</v>
       </c>
     </row>
@@ -3177,11 +3177,11 @@
         <v>0</v>
       </c>
       <c r="N74" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.4</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="5"/>
-        <v>-0.4</v>
-      </c>
-      <c r="O74">
-        <f>C74-D74*20-H74*10+I74*10+J74/200</f>
         <v>-0.4</v>
       </c>
     </row>
@@ -3210,11 +3210,11 @@
         <v>200</v>
       </c>
       <c r="N75" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.4</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="5"/>
-        <v>-0.4</v>
-      </c>
-      <c r="O75">
-        <f>C75-D75*20-H75*10+I75*10+J75/200</f>
         <v>-0.4</v>
       </c>
     </row>
@@ -3235,11 +3235,11 @@
         <v>700</v>
       </c>
       <c r="N76" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.6</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="5"/>
-        <v>-2.6</v>
-      </c>
-      <c r="O76">
-        <f>C76-D76*20-H76*10+I76*10+J76/200</f>
         <v>-2.6</v>
       </c>
     </row>
@@ -3260,11 +3260,11 @@
         <v>0</v>
       </c>
       <c r="N77" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="5"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O77">
-        <f>C77-D77*20-H77*10+I77*10+J77/200</f>
         <v>-0.6</v>
       </c>
     </row>
@@ -3285,11 +3285,11 @@
         <v>0</v>
       </c>
       <c r="N78" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="5"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O78">
-        <f>C78-D78*20-H78*10+I78*10+J78/200</f>
         <v>-0.6</v>
       </c>
     </row>
@@ -3310,11 +3310,11 @@
         <v>0</v>
       </c>
       <c r="N79" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="5"/>
-        <v>-0.2</v>
-      </c>
-      <c r="O79">
-        <f>C79-D79*20-H79*10+I79*10+J79/200</f>
         <v>-0.2</v>
       </c>
     </row>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="N80" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="5"/>
-        <v>4.2</v>
-      </c>
-      <c r="O80">
-        <f>C80-D80*20-H80*10+I80*10+J80/200</f>
         <v>1.4000000000000004</v>
       </c>
     </row>
@@ -3366,11 +3366,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="O81">
-        <f>C81-D81*20-H81*10+I81*10+J81/200</f>
         <v>1.2</v>
       </c>
     </row>
@@ -3391,17 +3391,17 @@
         <v>500</v>
       </c>
       <c r="N82" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="5"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="O82">
-        <f>C82-D82*20-H82*10+I82*10+J82/200</f>
-        <v>1.5999999999999999</v>
-      </c>
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O83">
@@ -3415,51 +3415,51 @@
         <v>103</v>
       </c>
       <c r="C84" s="4">
-        <f>C25+C30+C35+C36+C37</f>
+        <f t="shared" ref="C84:M84" si="7">C25+C30+C35+C36+C37</f>
         <v>72</v>
       </c>
       <c r="D84" s="4">
-        <f>D25+D30+D35+D36+D37</f>
+        <f t="shared" si="7"/>
         <v>2.99</v>
       </c>
       <c r="E84" s="4">
-        <f>E25+E30+E35+E36+E37</f>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="F84" s="4">
-        <f>F25+F30+F35+F36+F37</f>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="G84" s="4">
-        <f>G25+G30+G35+G36+G37</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="H84" s="4">
-        <f>H25+H30+H35+H36+H37</f>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="I84" s="4">
-        <f>I25+I30+I35+I36+I37</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J84" s="4">
-        <f>J25+J30+J35+J36+J37</f>
+        <f t="shared" si="7"/>
         <v>2200</v>
       </c>
       <c r="K84" s="4">
-        <f>K25+K30+K35+K36+K37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L84" s="4">
-        <f>L25+L30+L35+L36+L37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M84" s="4">
-        <f>M25+M30+M35+M36+M37</f>
+        <f t="shared" si="7"/>
         <v>42300</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-83.9</v>
       </c>
       <c r="O84">
@@ -3480,43 +3480,43 @@
         <v>3.0700000000000003</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85:M85" si="6">E39+E40+E46+E47+E32+E25</f>
+        <f t="shared" ref="E85:M85" si="8">E39+E40+E46+E47+E32+E25</f>
         <v>75</v>
       </c>
       <c r="F85">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="8"/>
+        <v>2200</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="8"/>
+        <v>43000</v>
+      </c>
+      <c r="N85" s="1">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="6"/>
-        <v>2200</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="6"/>
-        <v>43000</v>
-      </c>
-      <c r="N85" s="1">
-        <f t="shared" si="5"/>
         <v>-76</v>
       </c>
       <c r="O85">
@@ -3537,43 +3537,43 @@
         <v>3.0200000000000005</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86:M86" si="7">E39+E41+E46+E47+E25</f>
+        <f t="shared" ref="E86:M86" si="9">E39+E41+E46+E47+E25</f>
         <v>75</v>
       </c>
       <c r="F86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="G86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="I86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2200</v>
       </c>
       <c r="K86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43600</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-70</v>
       </c>
       <c r="O86">
@@ -3586,52 +3586,52 @@
         <v>143</v>
       </c>
       <c r="C87">
-        <f>C52+C53+C56+C57+C55+C32+C25</f>
+        <f t="shared" ref="C87:M87" si="10">C52+C53+C56+C57+C55+C32+C25</f>
         <v>88</v>
       </c>
       <c r="D87">
-        <f>D52+D53+D56+D57+D55+D32+D25</f>
+        <f t="shared" si="10"/>
         <v>3.14</v>
       </c>
       <c r="E87">
-        <f>E52+E53+E56+E57+E55+E32+E25</f>
-        <v>78</v>
+        <f t="shared" si="10"/>
+        <v>77</v>
       </c>
       <c r="F87">
-        <f>F52+F53+F56+F57+F55+F32+F25</f>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="G87">
-        <f>G52+G53+G56+G57+G55+G32+G25</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="H87">
-        <f>H52+H53+H56+H57+H55+H32+H25</f>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="I87">
-        <f>I52+I53+I56+I57+I55+I32+I25</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J87">
-        <f>J52+J53+J56+J57+J55+J32+J25</f>
+        <f t="shared" si="10"/>
         <v>2200</v>
       </c>
       <c r="K87">
-        <f>K52+K53+K56+K57+K55+K32+K25</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f>L52+L53+L56+L57+L55+L32+L25</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f>M52+M53+M56+M57+M55+M32+M25</f>
+        <f t="shared" si="10"/>
         <v>47000</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N52:N88" si="8">C87-D87*20-E87*0.8-F87*0.6-H87*10+I87*10+J87/200</f>
-        <v>-71</v>
+        <f t="shared" ref="N87:N88" si="11">C87-D87*20-E87*0.8-F87*0.6-H87*10+I87*10+J87/200</f>
+        <v>-70.2</v>
       </c>
       <c r="O87">
         <f t="shared" si="4"/>
@@ -3643,51 +3643,51 @@
         <v>156</v>
       </c>
       <c r="C88">
-        <f>C57+C53+C55+C56+C61+C62+C63+C64+C65+C32+C25</f>
+        <f t="shared" ref="C88:M88" si="12">C57+C53+C55+C56+C61+C62+C63+C64+C65+C32+C25</f>
         <v>85</v>
       </c>
       <c r="D88">
-        <f>D57+D53+D55+D56+D61+D62+D63+D64+D65+D32+D25</f>
+        <f t="shared" si="12"/>
         <v>3.3</v>
       </c>
       <c r="E88">
-        <f>E57+E53+E55+E56+E61+E62+E63+E64+E65+E32+E25</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="F88">
-        <f>F57+F53+F55+F56+F61+F62+F63+F64+F65+F32+F25</f>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="G88">
-        <f>G57+G53+G55+G56+G61+G62+G63+G64+G65+G32+G25</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="H88">
-        <f>H57+H53+H55+H56+H61+H62+H63+H64+H65+H32+H25</f>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="I88">
-        <f>I57+I53+I55+I56+I61+I62+I63+I64+I65+I32+I25</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f>J57+J53+J55+J56+J61+J62+J63+J64+J65+J32+J25</f>
+        <f t="shared" si="12"/>
         <v>2200</v>
       </c>
       <c r="K88">
-        <f>K57+K53+K55+K56+K61+K62+K63+K64+K65+K32+K25</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f>L57+L53+L55+L56+L61+L62+L63+L64+L65+L32+L25</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f>M57+M53+M55+M56+M61+M62+M63+M64+M65+M32+M25</f>
+        <f t="shared" si="12"/>
         <v>48600</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-64.599999999999994</v>
       </c>
       <c r="O88">
@@ -3701,56 +3701,56 @@
         <v>105</v>
       </c>
       <c r="C89">
-        <f>SUM(C67,C68,C69,C70,C71,C73,C74,C77,C78,C79,C81,C80+C32,C25)</f>
-        <v>92.5</v>
+        <f t="shared" ref="C89:M89" si="13">SUM(C67,C68,C69,C70,C71,C73,C74,C77,C78,C79,C81,C80+C32,C25)</f>
+        <v>91.5</v>
       </c>
       <c r="D89">
-        <f>SUM(D67,D68,D69,D70,D71,D73,D74,D77,D78,D79,D81,D80+D32,D25)</f>
+        <f t="shared" si="13"/>
         <v>3.3900000000000006</v>
       </c>
       <c r="E89">
-        <f>SUM(E67,E68,E69,E70,E71,E73,E74,E77,E78,E79,E81,E80+E32,E25)</f>
-        <v>73</v>
+        <f t="shared" si="13"/>
+        <v>74</v>
       </c>
       <c r="F89">
-        <f>SUM(F67,F68,F69,F70,F71,F73,F74,F77,F78,F79,F81,F80+F32,F25)</f>
-        <v>85</v>
+        <f t="shared" si="13"/>
+        <v>86</v>
       </c>
       <c r="G89">
-        <f>SUM(G67,G68,G69,G70,G71,G73,G74,G77,G78,G79,G81,G80+G32,G25)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="H89">
-        <f>SUM(H67,H68,H69,H70,H71,H73,H74,H77,H78,H79,H81,H80+H32,H25)</f>
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
       <c r="I89">
-        <f>SUM(I67,I68,I69,I70,I71,I73,I74,I77,I78,I79,I81,I80+I32,I25)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f>SUM(J67,J68,J69,J70,J71,J73,J74,J77,J78,J79,J81,J80+J32,J25)</f>
+        <f t="shared" si="13"/>
         <v>2200</v>
       </c>
       <c r="K89">
-        <f>SUM(K67,K68,K69,K70,K71,K73,K74,K77,K78,K79,K81,K80+K32,K25)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f>SUM(L67,L68,L69,L70,L71,L73,L74,L77,L78,L79,L81,L80+L32,L25)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f>SUM(M67,M68,M69,M70,M71,M73,M74,M77,M78,M79,M81,M80+M32,M25)</f>
+        <f t="shared" si="13"/>
         <v>48200</v>
       </c>
       <c r="N89" s="1">
         <f>C89-D89*20-E89*0.8-F89*0.6-H89*10+I89*10+J89/200</f>
-        <v>-65.700000000000017</v>
+        <v>-68.100000000000023</v>
       </c>
       <c r="O89">
         <f>C89-D89*20-H89*10+I89*10+J89/200</f>
-        <v>43.699999999999989</v>
+        <v>42.699999999999989</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3758,56 +3758,56 @@
         <v>106</v>
       </c>
       <c r="C90">
-        <f>SUM(C67,C68,C69,C70,C72,C73,C74,C77,C78,C79,C82,C80+C32+C25)</f>
-        <v>94.5</v>
+        <f t="shared" ref="C90:M90" si="14">SUM(C67,C68,C69,C70,C72,C73,C74,C77,C78,C79,C82,C80+C32+C25)</f>
+        <v>93.5</v>
       </c>
       <c r="D90">
-        <f>SUM(D67,D68,D69,D70,D72,D73,D74,D77,D78,D79,D82,D80+D32+D25)</f>
+        <f t="shared" si="14"/>
         <v>3.4600000000000009</v>
       </c>
       <c r="E90">
-        <f>SUM(E67,E68,E69,E70,E72,E73,E74,E77,E78,E79,E82,E80+E32+E25)</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="F90">
-        <f>SUM(F67,F68,F69,F70,F72,F73,F74,F77,F78,F79,F82,F80+F32+F25)</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="G90">
-        <f>SUM(G67,G68,G69,G70,G72,G73,G74,G77,G78,G79,G82,G80+G32+G25)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H90">
-        <f>SUM(H67,H68,H69,H70,H72,H73,H74,H77,H78,H79,H82,H80+H32+H25)</f>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="I90">
-        <f>SUM(I67,I68,I69,I70,I72,I73,I74,I77,I78,I79,I82,I80+I32+I25)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J90">
-        <f>SUM(J67,J68,J69,J70,J72,J73,J74,J77,J78,J79,J82,J80+J32+J25)</f>
+        <f t="shared" si="14"/>
         <v>2200</v>
       </c>
       <c r="K90">
-        <f>SUM(K67,K68,K69,K70,K72,K73,K74,K77,K78,K79,K82,K80+K32+K25)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f>SUM(L67,L68,L69,L70,L72,L73,L74,L77,L78,L79,L82,L80+L32+L25)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M90">
-        <f>SUM(M67,M68,M69,M70,M72,M73,M74,M77,M78,M79,M82,M80+M32+M25)</f>
+        <f t="shared" si="14"/>
         <v>50700</v>
       </c>
       <c r="N90" s="1">
         <f>C90-D90*20-E90*0.8-F90*0.6-H90*10+I90*10+J90/200</f>
-        <v>-63.700000000000017</v>
+        <v>-64.700000000000017</v>
       </c>
       <c r="O90">
         <f>C90-D90*20-H90*10+I90*10+J90/200</f>
-        <v>44.299999999999983</v>
+        <v>43.299999999999983</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
